--- a/REAL-GSHome/src/main/webapp/assets/js/common/agent_template.xlsx
+++ b/REAL-GSHome/src/main/webapp/assets/js/common/agent_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\GS\REAL-GSHome\src\main\webapp\assets\js\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4891115-B1AC-49C0-9522-953DB020F90A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE2902C-9F62-4A8F-A1D2-E4B20FA6F371}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>직책</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>GS1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담스킬그룹(대표번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1661-2562,1833-9779</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무조건,로 구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -554,14 +566,15 @@
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -578,24 +591,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -606,7 +622,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -617,14 +633,15 @@
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -641,22 +658,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -673,47 +693,53 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
         <v>16</v>
       </c>
     </row>

--- a/REAL-GSHome/src/main/webapp/assets/js/common/agent_template.xlsx
+++ b/REAL-GSHome/src/main/webapp/assets/js/common/agent_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\GS\REAL-GSHome\src\main\webapp\assets\js\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE2902C-9F62-4A8F-A1D2-E4B20FA6F371}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC4ECA5-A38F-4325-B118-E4AEEDB2C113}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>직책</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>무조건,로 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※입력시 : 을 입력할 경우 구분자로 인식하여 업로드가 비정상적으로 될 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-를 입력하지 않음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,6 +223,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,6 +568,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -610,73 +688,6 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -712,6 +723,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
@@ -726,6 +740,9 @@
       </c>
       <c r="J3" t="s">
         <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -741,6 +758,11 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/REAL-GSHome/src/main/webapp/assets/js/common/agent_template.xlsx
+++ b/REAL-GSHome/src/main/webapp/assets/js/common/agent_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\GS\REAL-GSHome\src\main\webapp\assets\js\common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Repo\GS\REAL-GSHome\src\main\webapp\assets\js\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC4ECA5-A38F-4325-B118-E4AEEDB2C113}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92FB81F-1D74-4B2E-A7C7-D9B6FA275893}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>직책</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재직구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>퇴사일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,14 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퇴사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20211122</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,18 +116,6 @@
   </si>
   <si>
     <t>GS1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담스킬그룹(대표번호)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1661-2562,1833-9779</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무조건,로 구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -566,9 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -577,17 +555,15 @@
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -602,30 +578,44 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{97251A4E-BC1B-4F0F-AF9E-2D5F37B9499C}">
+      <formula1>"QA/교육,매니저,부팀장,상담사,선임,팀장"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{E5604F5A-6EB8-4AB9-ABD0-39697E0F7B3A}">
+      <formula1>"07시~16시,09시~18시,10시~14시,10시~19시,11시~16시,12시~17시,14시~18시,15시~24시,16시~23시,16시~24시,18시~07시,18시~23시,19시~23시"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{925418CF-F26C-4B51-B101-F079321A0819}">
+      <formula1>"1대1 문의,2차 민원상담,MD 2차처리,QQA/교육,고객의소리 게시판,나냉 2차처리,상담(IN),상담(IN/OB),센터장,전략마케팅 전담,팀관리"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{BB8481F7-B6CA-4260-96F0-1A1BD6B2CA54}">
+      <formula1>"20대,30대,40대,50대,60대"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{E8EFD7D4-F4DB-4A3C-8EA8-375A488792B4}">
+      <formula1>"미혼,기혼"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{D006A07B-B533-423A-9762-572D3FD6A012}">
+      <formula1>"남자,여자"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -633,9 +623,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F2:H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -644,17 +636,15 @@
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -669,100 +659,82 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/REAL-GSHome/src/main/webapp/assets/js/common/agent_template.xlsx
+++ b/REAL-GSHome/src/main/webapp/assets/js/common/agent_template.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Repo\GS\REAL-GSHome\src\main\webapp\assets\js\common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\GS\REAL-GSHome\src\main\webapp\assets\js\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92FB81F-1D74-4B2E-A7C7-D9B6FA275893}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976A4AFA-B519-4B3B-90B7-99DF48B49DEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="작성예시" sheetId="2" r:id="rId2"/>
+    <sheet name="작성예시" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>직책</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,75 +55,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상담사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09시~18시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담(IN/OB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>20211122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20211123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담사사번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※입력시 : 을 입력할 경우 구분자로 인식하여 업로드가 비정상적으로 될 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-를 입력하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA/교육</t>
+  </si>
+  <si>
+    <t>07시~16시</t>
+  </si>
+  <si>
+    <t>1대1 문의</t>
   </si>
   <si>
     <t>20대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>미혼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기혼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>남자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20211122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20211123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담사사번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※입력시 : 을 입력할 경우 구분자로 인식하여 업로드가 비정상적으로 될 수 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-를 입력하지 않음</t>
+  </si>
+  <si>
+    <t>※직책, 근무시간, 업무, 연령대, 혼인여부, 성별은 콤보 선택 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,9 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -563,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -622,12 +594,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8197CD-1287-4087-8DD0-DE7EF9939846}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F2:H6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -644,7 +614,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -673,72 +643,73 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F6" t="s">
-        <v>15</v>
+      <c r="A6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>24</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{62032136-DFBF-4F5B-8679-EAF09037F3F5}">
+      <formula1>"남자,여자"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{8AA7C47D-F437-4BB8-9CF8-2B6526A7BF1E}">
+      <formula1>"미혼,기혼"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{B07C0205-5EB4-4CB1-ACFD-539653631887}">
+      <formula1>"20대,30대,40대,50대,60대"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{BF5CED2C-7581-4C09-98C9-7D55FA57EA92}">
+      <formula1>"1대1 문의,2차 민원상담,MD 2차처리,QQA/교육,고객의소리 게시판,나냉 2차처리,상담(IN),상담(IN/OB),센터장,전략마케팅 전담,팀관리"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{BABE94E6-3FBC-4A1B-92E9-65B8D7BEFE7A}">
+      <formula1>"07시~16시,09시~18시,10시~14시,10시~19시,11시~16시,12시~17시,14시~18시,15시~24시,16시~23시,16시~24시,18시~07시,18시~23시,19시~23시"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{55410A7A-87DC-4331-ABF7-BC42E82E8838}">
+      <formula1>"QA/교육,매니저,부팀장,상담사,선임,팀장"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/REAL-GSHome/src/main/webapp/assets/js/common/agent_template.xlsx
+++ b/REAL-GSHome/src/main/webapp/assets/js/common/agent_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\GS\REAL-GSHome\src\main\webapp\assets\js\common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976A4AFA-B519-4B3B-90B7-99DF48B49DEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0964F1-E245-49E3-8412-B3201801A0A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -518,7 +518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -576,7 +578,7 @@
       <formula1>"07시~16시,09시~18시,10시~14시,10시~19시,11시~16시,12시~17시,14시~18시,15시~24시,16시~23시,16시~24시,18시~07시,18시~23시,19시~23시"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{925418CF-F26C-4B51-B101-F079321A0819}">
-      <formula1>"1대1 문의,2차 민원상담,MD 2차처리,QQA/교육,고객의소리 게시판,나냉 2차처리,상담(IN),상담(IN/OB),센터장,전략마케팅 전담,팀관리"</formula1>
+      <formula1>"1대1 문의,2차 민원상담,MD 2차처리,QQA/교육,고객의소리 게시판,나냉 2차처리,상담(IN),상담(IN/OB),센터장,전략마케팅 전담,팀관리,총무&amp;DA"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{BB8481F7-B6CA-4260-96F0-1A1BD6B2CA54}">
       <formula1>"20대,30대,40대,50대,60대"</formula1>
@@ -597,7 +599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8197CD-1287-4087-8DD0-DE7EF9939846}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -701,7 +705,7 @@
       <formula1>"20대,30대,40대,50대,60대"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{BF5CED2C-7581-4C09-98C9-7D55FA57EA92}">
-      <formula1>"1대1 문의,2차 민원상담,MD 2차처리,QQA/교육,고객의소리 게시판,나냉 2차처리,상담(IN),상담(IN/OB),센터장,전략마케팅 전담,팀관리"</formula1>
+      <formula1>"1대1 문의,2차 민원상담,MD 2차처리,QQA/교육,고객의소리 게시판,나냉 2차처리,상담(IN),상담(IN/OB),센터장,전략마케팅 전담,팀관리,총무&amp;DA"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{BABE94E6-3FBC-4A1B-92E9-65B8D7BEFE7A}">
       <formula1>"07시~16시,09시~18시,10시~14시,10시~19시,11시~16시,12시~17시,14시~18시,15시~24시,16시~23시,16시~24시,18시~07시,18시~23시,19시~23시"</formula1>
